--- a/data/trans_orig/Q33-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q33-Edad-trans_orig.xlsx
@@ -693,7 +693,7 @@
         <v>7.838665083697565</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>7.724228403236856</v>
+        <v>7.724228403236857</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>7.967433749371664</v>
+        <v>7.962788942471255</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>7.885785113716095</v>
+        <v>7.887813732038227</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7.814371679904527</v>
+        <v>7.803841083792873</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7.62937626645134</v>
+        <v>7.628908654661065</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>7.954796843435781</v>
+        <v>7.947460877569861</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>7.637385619140361</v>
+        <v>7.650390079048363</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>7.643780970417158</v>
+        <v>7.636282411333716</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>7.509435203460828</v>
+        <v>7.506985027538308</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>7.981214050089305</v>
+        <v>7.979941624161349</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>7.793879280041422</v>
+        <v>7.806161668422631</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7.765644116436921</v>
+        <v>7.761645091329346</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>7.609493881383408</v>
+        <v>7.593893399951693</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.136561972435382</v>
+        <v>8.137307030373321</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.086456310396413</v>
+        <v>8.093230247705646</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.026527548134395</v>
+        <v>8.021377533335466</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.921486959636167</v>
+        <v>7.908390496154898</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>8.130781453151501</v>
+        <v>8.127948541513247</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>7.888322660282084</v>
+        <v>7.891560986541893</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>7.861127930155376</v>
+        <v>7.85038520455405</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>7.811636096651752</v>
+        <v>7.820425986590148</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>8.108803780950508</v>
+        <v>8.108034179372716</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>7.954298240660755</v>
+        <v>7.959744739418731</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>7.921423256146533</v>
+        <v>7.917230777517366</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>7.829039073123095</v>
+        <v>7.813197581267807</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>7.505901835691678</v>
+        <v>7.498372167024159</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>7.369428239230784</v>
+        <v>7.371222864465753</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7.4342687149479</v>
+        <v>7.435934298486369</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7.292948135332601</v>
+        <v>7.266246826682371</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>7.50932641032752</v>
+        <v>7.504916800226033</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>7.301787464711146</v>
+        <v>7.316634025983351</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>7.455867687840201</v>
+        <v>7.457936161316152</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>7.215027607426764</v>
+        <v>7.205220144488527</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>7.530111861185902</v>
+        <v>7.528915546392959</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>7.370395701495289</v>
+        <v>7.36698223502911</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>7.477517722735088</v>
+        <v>7.475848820766736</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>7.268791145060613</v>
+        <v>7.269237470980698</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.645271477483477</v>
+        <v>7.638877440802391</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.544915440944106</v>
+        <v>7.549753083118348</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.617383298638527</v>
+        <v>7.609228003269913</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7.511529132348038</v>
+        <v>7.498559865208485</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>7.664371972468943</v>
+        <v>7.675873290100856</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>7.493642107118676</v>
+        <v>7.489522868619564</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>7.624803863372652</v>
+        <v>7.623572728636021</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>7.429607699385846</v>
+        <v>7.425950648584531</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>7.636695730938865</v>
+        <v>7.633942110795943</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>7.493012723668184</v>
+        <v>7.4972063254414</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>7.592306232754429</v>
+        <v>7.59985676938684</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>7.429184015991498</v>
+        <v>7.429386850747281</v>
       </c>
     </row>
     <row r="10">
@@ -953,7 +953,7 @@
         <v>7.287600147577563</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>7.10521234553644</v>
+        <v>7.105212345536438</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>7.422736854544392</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>7.331552170522475</v>
+        <v>7.331267905871272</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>7.134849871079161</v>
+        <v>7.141007570133329</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7.249838752143908</v>
+        <v>7.250466687994553</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7.08511286094181</v>
+        <v>7.088091466308927</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>7.360498707685762</v>
+        <v>7.352811508668502</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>7.183613525504544</v>
+        <v>7.184849370511381</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>7.19952996905001</v>
+        <v>7.209919824147117</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>7.037955872356974</v>
+        <v>7.025048240656854</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>7.365615089990312</v>
+        <v>7.367326767447388</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>7.193142562486152</v>
+        <v>7.184947874988544</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>7.254917917686933</v>
+        <v>7.248203171839149</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>7.08166173176873</v>
+        <v>7.078227252053041</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.493757136188029</v>
+        <v>7.494861773521276</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.332406568362808</v>
+        <v>7.331650919144667</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.406643917895342</v>
+        <v>7.411827043983257</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.262364893116029</v>
+        <v>7.260853950819992</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>7.49701530230105</v>
+        <v>7.499171379070602</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>7.354770165882528</v>
+        <v>7.355883279922128</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>7.368384628591318</v>
+        <v>7.377446293382388</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>7.179881475267603</v>
+        <v>7.174253821233257</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>7.482067800940697</v>
+        <v>7.476900405212754</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>7.319101623574883</v>
+        <v>7.31705958588317</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7.364846367921963</v>
+        <v>7.364000527358718</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>7.195764863470346</v>
+        <v>7.193844628207283</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>7.311550815540381</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7.039095399711687</v>
+        <v>7.039095399711688</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>7.296213461421334</v>
@@ -1089,7 +1089,7 @@
         <v>7.116093822062695</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>7.000489005688341</v>
+        <v>7.00048900568834</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>7.346348627677479</v>
@@ -1101,7 +1101,7 @@
         <v>7.213653730737095</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>7.019273609711724</v>
+        <v>7.019273609711725</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>7.294869564724426</v>
+        <v>7.296863974525346</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>7.070295302596934</v>
+        <v>7.083487487649115</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7.228704635895291</v>
+        <v>7.225729420274511</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6.951726349554898</v>
+        <v>6.946254965570724</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>7.185761682591309</v>
+        <v>7.190392317306891</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>6.848650967736466</v>
+        <v>6.848980486335876</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>7.017442915382598</v>
+        <v>7.01699971972076</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>6.935494366417676</v>
+        <v>6.939513042977404</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>7.27553791832305</v>
+        <v>7.278166040030489</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6.995602674798253</v>
+        <v>6.997398199011067</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7.141966543876316</v>
+        <v>7.153451292719266</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>6.964350415551227</v>
+        <v>6.963670958216943</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.498841666800889</v>
+        <v>7.486606495266455</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.291773222570256</v>
+        <v>7.291889646075597</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.414110733754083</v>
+        <v>7.408193394408854</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7.125739064944337</v>
+        <v>7.128019686445247</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>7.394907752279465</v>
+        <v>7.393205314620923</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>7.063173634979508</v>
+        <v>7.066640727847127</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>7.206158383167784</v>
+        <v>7.202091936415616</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>7.065351814992265</v>
+        <v>7.068987318271314</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>7.423028581259082</v>
+        <v>7.421190868666</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>7.144738569695096</v>
+        <v>7.144152063598757</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>7.27735370139409</v>
+        <v>7.284391264356858</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>7.073016036042212</v>
+        <v>7.068306951587116</v>
       </c>
     </row>
     <row r="16">
@@ -1225,7 +1225,7 @@
         <v>6.89803980122565</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>6.739842453302895</v>
+        <v>6.739842453302896</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>7.24955812098701</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>7.261610641239463</v>
+        <v>7.254635537962655</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>7.098139775812686</v>
+        <v>7.101810110657271</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7.193314698087226</v>
+        <v>7.202486127832954</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6.907933967472301</v>
+        <v>6.908432905881904</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>7.004587926103926</v>
+        <v>7.009921653821809</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>6.708895986818876</v>
+        <v>6.68001848563923</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>6.761555407062437</v>
+        <v>6.763126767606772</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>6.661485562329023</v>
+        <v>6.657767683228382</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>7.171498836338539</v>
+        <v>7.163021535374164</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6.94089705166897</v>
+        <v>6.92262378541326</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>6.997778452440634</v>
+        <v>7.009961991164004</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>6.806111884597041</v>
+        <v>6.814699408230704</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.504444159433744</v>
+        <v>7.486560434274953</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.342086519746831</v>
+        <v>7.345034947214427</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.437903470364057</v>
+        <v>7.446499970037316</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.070901804250949</v>
+        <v>7.064623282017392</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>7.243689181730024</v>
+        <v>7.247588493471333</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>6.978643866631164</v>
+        <v>6.965423483343563</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>7.021704018632789</v>
+        <v>7.031564819594363</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>6.816210460719588</v>
+        <v>6.812035183988809</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>7.337827153148766</v>
+        <v>7.333010226137039</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>7.11933243412743</v>
+        <v>7.111017581707727</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>7.19634061532857</v>
+        <v>7.191591012443724</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>6.923126302478043</v>
+        <v>6.928669940675795</v>
       </c>
     </row>
     <row r="19">
@@ -1349,7 +1349,7 @@
         <v>7.482421723443428</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6.947832143367107</v>
+        <v>6.947832143367106</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>6.903064780823551</v>
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>7.323943200115986</v>
+        <v>7.334496920955996</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>7.132029621878785</v>
+        <v>7.138074359448651</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>7.326069564203983</v>
+        <v>7.328362153247268</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>6.836277354887896</v>
+        <v>6.84480958726198</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>6.764595002877784</v>
+        <v>6.752542380513122</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>6.742307749215461</v>
+        <v>6.760801554767201</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>6.837678245184884</v>
+        <v>6.852848391519966</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>6.720538526022255</v>
+        <v>6.733692812917727</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>7.05187227963071</v>
+        <v>7.06578251749242</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>6.972919508770754</v>
+        <v>6.970917814238228</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>7.118856588404133</v>
+        <v>7.117905405296249</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>6.811262627774354</v>
+        <v>6.809297347742367</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>7.632071834705108</v>
+        <v>7.614198412553471</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>7.482745302218462</v>
+        <v>7.498588436854289</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>7.622513449238212</v>
+        <v>7.61913293729874</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>7.046464504871699</v>
+        <v>7.04872604698049</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>7.043282743179197</v>
+        <v>7.026475964578578</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>7.046397199584019</v>
+        <v>7.065082871982798</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>7.133015882598735</v>
+        <v>7.1343666032208</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>6.89457605526937</v>
+        <v>6.898980512057989</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>7.262649768795962</v>
+        <v>7.27964016344981</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>7.208787003849729</v>
+        <v>7.210637243404326</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>7.331905468365649</v>
+        <v>7.329987859777448</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>6.945630215128708</v>
+        <v>6.943246278552214</v>
       </c>
     </row>
     <row r="22">
@@ -1485,7 +1485,7 @@
         <v>7.619308311499782</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>7.000773094049263</v>
+        <v>7.000773094049262</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>7.022128358217172</v>
@@ -1497,7 +1497,7 @@
         <v>7.185482072751759</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>6.851486757490815</v>
+        <v>6.851486757490814</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>7.159428857799141</v>
@@ -1509,7 +1509,7 @@
         <v>7.356184027339787</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>6.911831215639077</v>
+        <v>6.911831215639078</v>
       </c>
     </row>
     <row r="23">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>7.214481744380396</v>
+        <v>7.209431130002667</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>7.250694140365268</v>
+        <v>7.278391431972903</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>7.450424225222437</v>
+        <v>7.46767278445014</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>6.87589139164006</v>
+        <v>6.884173886427517</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>6.862036751061729</v>
+        <v>6.852884936806015</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>6.870384578826497</v>
+        <v>6.87164423303428</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>7.004237082654827</v>
+        <v>7.021339508777691</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>6.746363245259675</v>
+        <v>6.755344549537076</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>7.042221981024406</v>
+        <v>7.03814205421735</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>7.067764027107033</v>
+        <v>7.081477829370214</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>7.229964811590353</v>
+        <v>7.229911411209886</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>6.834881322487979</v>
+        <v>6.833985587904871</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.550019726196674</v>
+        <v>7.557813318259418</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>7.751872457405157</v>
+        <v>7.751092905961713</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.794702309654808</v>
+        <v>7.791022762215198</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7.121453632566403</v>
+        <v>7.118176695314593</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>7.213516631822642</v>
+        <v>7.202393220272217</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>7.187140127619672</v>
+        <v>7.189140228102842</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>7.338477632486869</v>
+        <v>7.343607113830338</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>6.95441316296724</v>
+        <v>6.963426525924549</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>7.301367660131882</v>
+        <v>7.296863069233869</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>7.345329123855509</v>
+        <v>7.345793015593842</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>7.480685119201576</v>
+        <v>7.474061166864615</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>6.988762170193493</v>
+        <v>6.990359496361083</v>
       </c>
     </row>
     <row r="25">
@@ -1621,7 +1621,7 @@
         <v>7.469681629182796</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>7.171609758941642</v>
+        <v>7.171609758941643</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>7.393940889714315</v>
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>7.507751500798789</v>
+        <v>7.501545819401818</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>7.351484614242954</v>
+        <v>7.348080717137474</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>7.427578909365111</v>
+        <v>7.429776422630228</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>7.134491728576791</v>
+        <v>7.134292228001399</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>7.351807384166651</v>
+        <v>7.349702317614367</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>7.138467889316953</v>
+        <v>7.139202596470057</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>7.209223813660476</v>
+        <v>7.205129782490546</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>7.007164067321241</v>
+        <v>7.00894822466296</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>7.438774241780708</v>
+        <v>7.439050611063082</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>7.257182759718003</v>
+        <v>7.251904070779761</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>7.329624074769298</v>
+        <v>7.325830274141139</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>7.080758728333312</v>
+        <v>7.07751399885814</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>7.584901169156474</v>
+        <v>7.583430976396508</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>7.442422788229515</v>
+        <v>7.433905748207124</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>7.513297049604887</v>
+        <v>7.513309078178795</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>7.212493283957881</v>
+        <v>7.212354350399616</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>7.437348171779035</v>
+        <v>7.434273096222162</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>7.225936860754294</v>
+        <v>7.224909955104544</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>7.296722681857783</v>
+        <v>7.292046489607381</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>7.081105956009015</v>
+        <v>7.079221785134852</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>7.494042364423814</v>
+        <v>7.49376500174118</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>7.320273634158676</v>
+        <v>7.315797227096517</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>7.389945286953462</v>
+        <v>7.385780676299289</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>7.133948857335257</v>
+        <v>7.131881588794891</v>
       </c>
     </row>
     <row r="28">
